--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1513330.004043909</v>
+        <v>1617509.63849498</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.45713216103701</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>107.0120291964077</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>145.0245568650203</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,10 +867,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2701196899493948</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -883,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>332.59741689968</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>192.0524966157163</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1102,10 +1104,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>33.79695477618962</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,13 +1116,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>111.9187566128687</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>63.73277769123531</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>9.943518040491607</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1303,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>58.90473879709253</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1339,13 +1341,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>102.4908346647292</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1658,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1771,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,19 +1815,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>135.5795121770519</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>245.8796921214428</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2008,16 +2010,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2062,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>79.70119244397701</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2242,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>176.1811323375794</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2488,10 +2490,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>107.4021082756238</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>1.799772605717294</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>241.143581509382</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H31" t="n">
-        <v>73.56194264363175</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3035,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3193,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>18.7084378797738</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>35.41770597126747</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="36">
@@ -3436,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060472</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>71.60395572454081</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3676,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4147,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>27.02919805176109</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D2" t="n">
         <v>1232.150970528558</v>
@@ -4328,10 +4330,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4373,7 +4375,7 @@
         <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1590.416669135309</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064582</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>363.5187033424295</v>
+        <v>629.780563451991</v>
       </c>
       <c r="C4" t="n">
-        <v>363.5187033424295</v>
+        <v>460.8443805240842</v>
       </c>
       <c r="D4" t="n">
-        <v>213.4020639300938</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
@@ -4513,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.505358501181</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.402491626824</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V4" t="n">
-        <v>1101.718003420938</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W4" t="n">
-        <v>812.300833383977</v>
+        <v>1004.259565728817</v>
       </c>
       <c r="X4" t="n">
-        <v>584.3112824859596</v>
+        <v>776.2700148307995</v>
       </c>
       <c r="Y4" t="n">
-        <v>363.5187033424295</v>
+        <v>776.2700148307995</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2295.336172843074</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C5" t="n">
-        <v>1926.373655902662</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D5" t="n">
-        <v>1568.107957295912</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,19 +4567,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4592,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3021.322732312311</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883008</v>
+        <v>2767.792255586147</v>
       </c>
       <c r="V5" t="n">
-        <v>3072.075344883008</v>
+        <v>2436.729368242576</v>
       </c>
       <c r="W5" t="n">
-        <v>3072.075344883008</v>
+        <v>2083.960712972462</v>
       </c>
       <c r="X5" t="n">
-        <v>3072.075344883008</v>
+        <v>1710.494954711382</v>
       </c>
       <c r="Y5" t="n">
-        <v>2681.936012907196</v>
+        <v>1320.35562273557</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4632,46 +4634,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>477.7578170212613</v>
+        <v>629.1078027362229</v>
       </c>
       <c r="C7" t="n">
-        <v>477.7578170212613</v>
+        <v>460.171619808316</v>
       </c>
       <c r="D7" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
         <v>310.0549803959803</v>
@@ -4750,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1803.325752688253</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1803.325752688253</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1514.222885813897</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1259.53839760801</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>1259.53839760801</v>
       </c>
       <c r="X7" t="n">
-        <v>477.7578170212613</v>
+        <v>1031.548846709993</v>
       </c>
       <c r="Y7" t="n">
-        <v>477.7578170212613</v>
+        <v>810.7562675664626</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2051.278283189674</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C8" t="n">
-        <v>1682.315766249263</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4799,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450754</v>
+        <v>3109.584116376734</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189674</v>
+        <v>2736.118358115654</v>
       </c>
       <c r="Y8" t="n">
-        <v>2051.278283189674</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4874,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>441.1652223009119</v>
+        <v>549.3683227675135</v>
       </c>
       <c r="C10" t="n">
-        <v>272.229039373005</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D10" t="n">
-        <v>272.229039373005</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>272.229039373005</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>272.229039373005</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1615.697475415547</v>
+        <v>1542.252111051909</v>
       </c>
       <c r="V10" t="n">
-        <v>1361.01298720966</v>
+        <v>1287.567622846022</v>
       </c>
       <c r="W10" t="n">
-        <v>1071.595817172699</v>
+        <v>998.150452809061</v>
       </c>
       <c r="X10" t="n">
-        <v>843.6062662746817</v>
+        <v>770.1609019110437</v>
       </c>
       <c r="Y10" t="n">
-        <v>622.8136871311516</v>
+        <v>549.3683227675135</v>
       </c>
     </row>
     <row r="11">
@@ -5021,37 +5023,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5121,22 +5123,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>251.562654109227</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249857</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5258,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,28 +5275,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5364,19 +5366,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2242.968377633621</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2023.366912656562</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1734.29168600076</v>
       </c>
       <c r="V16" t="n">
-        <v>1977.461080510508</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="17">
@@ -5510,10 +5512,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5592,28 +5594,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>184.7035232280589</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>184.7035232280589</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5710,13 +5712,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1353.195110654903</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5744,25 +5746,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>739.5354516872161</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2269.002343845332</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2049.400878868273</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5983,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
@@ -5990,19 +5992,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2716.927329289434</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>3212.252935505192</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>3678.660617711126</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>3678.660617711126</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>4230.570347950413</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>4654.193497445481</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3556038098237</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>814.4194208819168</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>664.3027814695811</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>516.389687887188</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>369.4997403892776</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>202.3036411041575</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6174,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924458</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718571</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783593</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y25" t="n">
-        <v>1165.004068640063</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,13 +6220,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6236,37 +6238,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2757.723669558405</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>2588.787486630498</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>2586.969534503511</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>2586.969534503511</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>2586.969534503511</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>2419.773435218391</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1972.677130397315</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430192</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532175</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388645</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6452,19 +6454,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6476,37 +6478,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1031.260321675049</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>862.3241387471426</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>712.2074993348068</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>564.2944057524137</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>417.4044582545033</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>250.2083589693833</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1433.701365648819</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1212.908786505289</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6692,46 +6694,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6783,13 +6785,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
         <v>2129.438138565707</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2971.84874707406</v>
+        <v>2757.723669558406</v>
       </c>
       <c r="C34" t="n">
-        <v>2802.912564146153</v>
+        <v>2588.787486630499</v>
       </c>
       <c r="D34" t="n">
-        <v>2652.795924733818</v>
+        <v>2438.670847218163</v>
       </c>
       <c r="E34" t="n">
-        <v>2504.882831151424</v>
+        <v>2438.670847218163</v>
       </c>
       <c r="F34" t="n">
-        <v>2504.882831151424</v>
+        <v>2438.670847218163</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>2438.670847218163</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S34" t="n">
-        <v>4655.057691821556</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T34" t="n">
-        <v>4435.456226844497</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U34" t="n">
-        <v>4146.381000188695</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V34" t="n">
-        <v>3891.696511982808</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="W34" t="n">
-        <v>3602.279341945848</v>
+        <v>3388.154264430193</v>
       </c>
       <c r="X34" t="n">
-        <v>3374.28979104783</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y34" t="n">
-        <v>3153.4972119043</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="35">
@@ -6929,46 +6931,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>2715.159942084666</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L36" t="n">
-        <v>3210.485548300425</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M36" t="n">
-        <v>3807.864035926977</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N36" t="n">
-        <v>3807.864035926977</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>3997.308687575531</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>4420.931837070599</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>1702.079034721979</v>
+        <v>1318.793114229131</v>
       </c>
       <c r="O39" t="n">
-        <v>2253.988764961266</v>
+        <v>1870.702844468418</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2294.325993963486</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2527.587654338369</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7491,16 +7493,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7628,37 +7630,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23659,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,19 +23703,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>45.44677382459273</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>40.64330621514819</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23950,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>206.821805892614</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>4.845153664065236</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24376,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>32.8926045706001</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24412,13 +24414,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>146.8157004124951</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>45.37941682720901</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H31" t="n">
-        <v>66.73277020259214</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>121.58627496645</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>145.6085800303771</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>138.4949402405078</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>901280.0268892779</v>
+        <v>901280.0268892777</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>901280.0268892779</v>
+        <v>901280.0268892777</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>901280.0268892779</v>
+        <v>901280.0268892777</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>901280.0268892779</v>
+        <v>901280.0268892777</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>901280.0268892779</v>
+        <v>901280.0268892777</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>901280.0268892779</v>
+        <v>901280.0268892777</v>
       </c>
     </row>
   </sheetData>
@@ -26323,10 +26325,10 @@
         <v>524645.289798504</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="H2" t="n">
         <v>524645.289798504</v>
@@ -26335,25 +26337,25 @@
         <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.2897985044</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="L2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="L2" t="n">
-        <v>524645.2897985042</v>
-      </c>
       <c r="M2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="O2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972777</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820635</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-996405.3227254079</v>
+        <v>-996405.322725408</v>
       </c>
       <c r="C6" t="n">
         <v>332339.4230021846</v>
       </c>
       <c r="D6" t="n">
-        <v>332339.4230021846</v>
+        <v>332339.4230021845</v>
       </c>
       <c r="E6" t="n">
-        <v>83893.54609038671</v>
+        <v>83893.54609038659</v>
       </c>
       <c r="F6" t="n">
-        <v>409306.0078977417</v>
+        <v>409306.0078977418</v>
       </c>
       <c r="G6" t="n">
-        <v>409306.0078977418</v>
+        <v>409306.0078977419</v>
       </c>
       <c r="H6" t="n">
         <v>409306.0078977418</v>
@@ -26543,25 +26545,25 @@
         <v>409306.0078977418</v>
       </c>
       <c r="J6" t="n">
-        <v>191774.8055004648</v>
+        <v>191774.805500464</v>
       </c>
       <c r="K6" t="n">
-        <v>409306.0078977419</v>
+        <v>409306.0078977417</v>
       </c>
       <c r="L6" t="n">
-        <v>409306.007897742</v>
+        <v>409306.0078977418</v>
       </c>
       <c r="M6" t="n">
-        <v>324250.9799622301</v>
+        <v>324250.9799622299</v>
       </c>
       <c r="N6" t="n">
-        <v>409306.0078977418</v>
+        <v>409306.0078977417</v>
       </c>
       <c r="O6" t="n">
         <v>409306.0078977418</v>
       </c>
       <c r="P6" t="n">
-        <v>409306.0078977418</v>
+        <v>409306.0078977417</v>
       </c>
     </row>
   </sheetData>
@@ -26793,7 +26795,7 @@
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,16 +26813,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26981,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.2767095024436</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>279.2259094596459</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>34.80742331691695</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.2788295862198</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>49.33295317258177</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>11.86547352390386</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27822,10 +27824,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>155.9720705552523</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>113.7908987761685</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>290.9502639294477</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>339.2974506769214</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28023,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.1210694619357</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28059,13 +28061,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>183.7210035408837</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31619,10 +31621,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31841,7 +31843,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>146.0225991093089</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,16 +31852,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32084,22 +32086,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>366.8427442359106</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,31 +32314,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>216.857296338707</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>302.3396059822671</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>535.8585467435948</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32783,22 +32785,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2529048371025</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>139.5228722182831</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,10 +32809,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>355.4083096598242</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33503,19 +33505,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>309.9424824173362</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>601.0567753070487</v>
       </c>
       <c r="O36" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>163.4402738502018</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>171.4104471179097</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34368,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>361.7519118779092</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34469,16 +34471,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35267,10 +35269,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>8.181160134949948</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,16 +35500,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35732,22 +35734,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>235.5010321525773</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>90.01966967204031</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>163.7852262023929</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36431,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>471.1188709150841</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,10 +36457,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>189.5729943876631</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>213.2742757378059</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>220.9409070342396</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>167.3462379728918</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>469.7150632237154</v>
       </c>
       <c r="O36" t="n">
-        <v>191.358233988438</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>29.46586643587157</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>25.73094315394571</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,19 +37861,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>219.1556674334648</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1617509.63849498</v>
+        <v>1613497.028480988</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>19.68942351146712</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>107.0120291964077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>145.0245568650203</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>192.1675620474802</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>192.0524966157163</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -958,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>175.2171019709037</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1062,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>33.79695477618962</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>75.45713216103701</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>9.943518040491607</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>102.4908346647292</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>23.10998325717172</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>65.56423921895123</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>135.5795121770519</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>104.4262124629291</v>
       </c>
     </row>
     <row r="23">
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>9.146142788179425</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>241.143581509382</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3037,10 +3037,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>18.7084378797738</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>55.52079624060472</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>99.97427419833861</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>156.2292142534452</v>
       </c>
     </row>
   </sheetData>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1590.416669135309</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1590.416669135309</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686086</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>846.071687106476</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080131</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986305</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>629.780563451991</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>460.8443805240842</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>310.7277411117484</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>310.7277411117484</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="U4" t="n">
-        <v>1548.361223971664</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="V4" t="n">
-        <v>1293.676735765777</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W4" t="n">
-        <v>1004.259565728817</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X4" t="n">
-        <v>776.2700148307995</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>776.2700148307995</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1320.35562273557</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.35562273557</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
         <v>934.5673701373257</v>
@@ -4567,22 +4567,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3021.322732312311</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2767.792255586147</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2436.729368242576</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2083.960712972462</v>
+        <v>2453.73481737875</v>
       </c>
       <c r="X5" t="n">
-        <v>1710.494954711382</v>
+        <v>2080.269059117671</v>
       </c>
       <c r="Y5" t="n">
-        <v>1320.35562273557</v>
+        <v>1690.129727141859</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218343</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>629.1078027362229</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>460.171619808316</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959803</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1803.325752688253</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1803.325752688253</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1514.222885813897</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1259.53839760801</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1259.53839760801</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1031.548846709993</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>810.7562675664626</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D8" t="n">
         <v>1232.150970528558</v>
@@ -4801,13 +4801,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4828,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993392</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993392</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>3109.584116376734</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2736.118358115654</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.979026139843</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>549.3683227675135</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>380.4321398396066</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4321398396066</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396066</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1542.252111051909</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1287.567622846022</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>998.150452809061</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>770.1609019110437</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>549.3683227675135</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5035,31 +5035,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,25 +5117,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5260,43 +5260,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5369,10 +5369,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>559.7594328861248</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C16" t="n">
-        <v>390.823249958218</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D16" t="n">
-        <v>240.7066105458822</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2242.968377633621</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2023.366912656562</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1734.29168600076</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1479.607197794873</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1190.190027757912</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>962.2004768598947</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>741.4078977163646</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5503,34 +5503,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5606,7 +5606,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5655,19 +5655,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5734,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5743,10 +5743,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5834,25 +5834,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5983,58 +5983,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,40 +6238,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>2227.361618603202</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1972.677130397315</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6679,13 +6679,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6694,13 +6694,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6712,37 +6712,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558406</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630499</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>2438.670847218163</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>2438.670847218163</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>2438.670847218163</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2438.670847218163</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305901</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328842</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.25592267304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467153</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430193</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>296.7882229101294</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>149.8982754122191</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998291</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998291</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998291</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>194.8007783998291</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
   </sheetData>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.1847295890522</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>101.6825818796766</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>45.44677382459273</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>127.7255247667966</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>114.1584408891657</v>
       </c>
     </row>
     <row r="23">
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>35.40333084624567</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>136.2749052347518</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>45.37941682720901</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>121.58627496645</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>40.32043864788525</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>62.35543909864958</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>901280.0268892779</v>
+        <v>901280.0268892777</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>901280.0268892777</v>
+        <v>901280.0268892779</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>901280.0268892777</v>
+        <v>901280.0268892779</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>901280.0268892779</v>
+        <v>901280.0268892777</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>901280.0268892779</v>
+        <v>901280.0268892777</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>901280.0268892777</v>
+        <v>901280.0268892779</v>
       </c>
     </row>
     <row r="15">
@@ -26316,25 +26316,25 @@
         <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="F2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="H2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="J2" t="n">
         <v>524645.2897985039</v>
@@ -26343,19 +26343,19 @@
         <v>524645.2897985039</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="M2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972777</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820629</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820635</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26438,7 +26438,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685509</v>
       </c>
       <c r="J4" t="n">
         <v>14216.75207685505</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-996405.322725408</v>
+        <v>-996405.3227254079</v>
       </c>
       <c r="C6" t="n">
-        <v>332339.4230021846</v>
+        <v>332339.4230021847</v>
       </c>
       <c r="D6" t="n">
-        <v>332339.4230021845</v>
+        <v>332339.4230021847</v>
       </c>
       <c r="E6" t="n">
-        <v>83893.54609038659</v>
+        <v>83546.1668360296</v>
       </c>
       <c r="F6" t="n">
-        <v>409306.0078977418</v>
+        <v>408958.6286433848</v>
       </c>
       <c r="G6" t="n">
-        <v>409306.0078977419</v>
+        <v>408958.6286433848</v>
       </c>
       <c r="H6" t="n">
-        <v>409306.0078977418</v>
+        <v>408958.6286433848</v>
       </c>
       <c r="I6" t="n">
-        <v>409306.0078977418</v>
+        <v>408958.6286433847</v>
       </c>
       <c r="J6" t="n">
-        <v>191774.805500464</v>
+        <v>191427.4262461073</v>
       </c>
       <c r="K6" t="n">
-        <v>409306.0078977417</v>
+        <v>408958.6286433847</v>
       </c>
       <c r="L6" t="n">
-        <v>409306.0078977418</v>
+        <v>408958.6286433847</v>
       </c>
       <c r="M6" t="n">
-        <v>324250.9799622299</v>
+        <v>323903.600707873</v>
       </c>
       <c r="N6" t="n">
-        <v>409306.0078977417</v>
+        <v>408958.6286433848</v>
       </c>
       <c r="O6" t="n">
-        <v>409306.0078977418</v>
+        <v>408958.6286433848</v>
       </c>
       <c r="P6" t="n">
-        <v>409306.0078977417</v>
+        <v>408958.6286433848</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,16 +26813,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>345.5834682595404</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>279.2259094596459</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34.80742331691695</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>27.38138722868902</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>11.86547352390386</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>174.0238667465093</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>155.9720705552523</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>307.2767095024436</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>339.2974506769214</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>183.7210035408837</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29046,7 +29046,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>8.707735062108396e-13</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -31621,7 +31621,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
@@ -31837,13 +31837,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31855,10 +31855,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32089,13 +32089,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>466.5925882502527</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32253,7 +32253,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q17" t="n">
         <v>593.8732233669223</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32554,10 +32554,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>535.8585467435948</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32800,16 +32800,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>355.4083096598242</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>601.0567753070487</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35503,10 +35503,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35737,13 +35737,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35901,7 +35901,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924728</v>
@@ -35974,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36202,10 +36202,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>393.2623022991504</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36448,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>110.1905571410452</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>213.2742757378059</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>110.1905571410452</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>469.7150632237154</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1613497.028480988</v>
+        <v>1615257.558783773</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283208</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>19.68942351146712</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>237.3423628479718</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734102899</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>80.00124118081874</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>192.1675620474802</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -901,10 +901,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>175.2171019709037</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>227.717223695296</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824772</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>157.7822070347172</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>13.42874471570786</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>75.45713216103701</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>42.76773080618879</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1195,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187834</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>23.10998325717172</v>
+        <v>134.5665975534131</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722578</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>65.56423921895123</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>41.01175877060019</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576146</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>154.4892550148495</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>66.24118421664596</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>104.4262124629291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>130.1208074460232</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428172</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>9.146142788179425</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>37.41782514684017</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>29.67382008037395</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>94.64226186542889</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3669,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>177.6965697803346</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>251.0718348128881</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>265.56576948799</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>156.2292142534452</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1698.50962791956</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
         <v>934.5673701373257</v>
@@ -4330,7 +4330,7 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810562</v>
@@ -4339,7 +4339,7 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2438.534757724422</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.50962791956</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="3">
@@ -4385,31 +4385,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
         <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686086</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106476</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080131</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986305</v>
+        <v>920.7416649986304</v>
       </c>
       <c r="K3" t="n">
         <v>1159.005863978978</v>
@@ -4424,13 +4424,13 @@
         <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
         <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
         <v>3325.461468201687</v>
@@ -4448,7 +4448,7 @@
         <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
         <v>2078.071769341961</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>1075.097337786232</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>906.1611548583255</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>756.0445154459898</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>608.1314218635966</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>461.2414743656863</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>293.5386377404052</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>147.321450958263</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218343</v>
@@ -4491,16 +4491,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4518,22 +4518,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1733.185899555685</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U4" t="n">
-        <v>1733.185899555685</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V4" t="n">
-        <v>1478.501411349798</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="W4" t="n">
-        <v>1478.501411349798</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="X4" t="n">
-        <v>1250.51186045178</v>
+        <v>1477.538381760002</v>
       </c>
       <c r="Y4" t="n">
-        <v>1029.71928130825</v>
+        <v>1256.745802616472</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1303.529887077737</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>934.5673701373257</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,16 +4567,16 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
@@ -4591,28 +4591,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
         <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W5" t="n">
-        <v>2453.73481737875</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X5" t="n">
-        <v>2080.269059117671</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="Y5" t="n">
-        <v>1690.129727141859</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4728,16 +4728,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="V7" t="n">
-        <v>1767.918581386758</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1232.150970528558</v>
+        <v>1661.138951213862</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1661.138951213862</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4804,7 +4804,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4840,16 +4840,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.81350961146</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.54781100471</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406465</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168579</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192586</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="12">
@@ -5108,31 +5108,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273893</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803935</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516139</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>696.7084350851662</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>527.7722521572593</v>
       </c>
       <c r="D13" t="n">
-        <v>411.9631215597619</v>
+        <v>377.6556127449236</v>
       </c>
       <c r="E13" t="n">
-        <v>264.0500279773688</v>
+        <v>229.7425191625305</v>
       </c>
       <c r="F13" t="n">
-        <v>117.1600804794585</v>
+        <v>229.7425191625305</v>
       </c>
       <c r="G13" t="n">
-        <v>117.1600804794585</v>
+        <v>229.7425191625305</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855603</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199801</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993914</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.139029956953</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1099.149479058936</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>878.356899915406</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551871</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611459</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004709</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5281,49 +5281,49 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694704</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852252</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.83315239859</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492574</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.25260147478</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612122999</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852884</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591805</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615993</v>
       </c>
     </row>
     <row r="15">
@@ -5345,31 +5345,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143763</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327643</v>
+        <v>874.868625753638</v>
       </c>
       <c r="C16" t="n">
-        <v>697.5276345711974</v>
+        <v>705.9324428257311</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>555.8158034133953</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310022</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.402603663004</v>
+        <v>874.868625753638</v>
       </c>
     </row>
     <row r="17">
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192582</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,19 +5530,19 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>874.868625753638</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257311</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133953</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310022</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.77659230462</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.35942226766</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5743,40 +5743,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>302.4387812932949</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>302.4387812932949</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>160.726950135493</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5980,61 +5980,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797184</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6056,31 +6056,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6126,34 +6126,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>366.9636532421608</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,31 +6247,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597619</v>
+        <v>445.6984928076085</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>131.6124460245781</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2167.088989850826</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1878.013763195024</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1623.329274989137</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="32">
@@ -6682,25 +6682,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,16 +6925,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6943,16 +6943,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7134,13 +7134,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8641191832229</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C40" t="n">
-        <v>634.927936255316</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
         <v>484.8112968429803</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2267.47159895366</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.396372297858</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V40" t="n">
-        <v>1723.711884091971</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.29471405501</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X40" t="n">
-        <v>1206.305163156993</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.5125840134626</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7551,19 +7551,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,10 +7645,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>576.8388927589092</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C46" t="n">
-        <v>407.9027098310023</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D46" t="n">
-        <v>407.9027098310023</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1959.113366595131</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y46" t="n">
-        <v>758.4873575891489</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
   </sheetData>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>3.240074875066057e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>117.1847295890522</v>
+        <v>5.728115292810827</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-12</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>101.6825818796766</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>177.5728945814946</v>
       </c>
     </row>
     <row r="17">
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.449507180950604e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>71.22040037418765</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>15.02465210191959</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>114.1584408891657</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>35.40333084624567</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>136.2749052347518</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>102.8768876993837</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>187.7316302469143</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>39.70888054695368</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>35.11263957635606</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>146.8157004124962</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>20.61870490125415</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>62.35543909864958</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>901280.0268892777</v>
+        <v>901280.0268892776</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>901280.0268892779</v>
+        <v>901280.0268892775</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>901280.0268892779</v>
+        <v>901280.0268892777</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>901280.0268892777</v>
+        <v>901280.0268892779</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>901280.0268892779</v>
+        <v>901280.0268892777</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>901280.0268892779</v>
+        <v>901280.0268892777</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>901280.0268892777</v>
+        <v>901280.0268892779</v>
       </c>
     </row>
   </sheetData>
@@ -26316,34 +26316,34 @@
         <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="F2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="G2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="H2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="I2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="G2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="H2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="I2" t="n">
-        <v>524645.2897985039</v>
       </c>
       <c r="J2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
         <v>524645.289798504</v>
@@ -26352,7 +26352,7 @@
         <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="P2" t="n">
         <v>524645.289798504</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972777</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551164</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93403.78684820629</v>
+      </c>
+      <c r="C4" t="n">
         <v>93403.78684820631</v>
       </c>
-      <c r="C4" t="n">
-        <v>93403.78684820629</v>
-      </c>
       <c r="D4" t="n">
-        <v>93403.78684820635</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26438,7 +26438,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
         <v>14216.75207685505</v>
@@ -26481,7 +26481,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-996405.3227254079</v>
+        <v>-996405.3227254081</v>
       </c>
       <c r="C6" t="n">
-        <v>332339.4230021847</v>
+        <v>332339.4230021845</v>
       </c>
       <c r="D6" t="n">
-        <v>332339.4230021847</v>
+        <v>332339.4230021851</v>
       </c>
       <c r="E6" t="n">
-        <v>83546.1668360296</v>
+        <v>83858.80816495148</v>
       </c>
       <c r="F6" t="n">
-        <v>408958.6286433848</v>
+        <v>409271.2699723059</v>
       </c>
       <c r="G6" t="n">
-        <v>408958.6286433848</v>
+        <v>409271.2699723059</v>
       </c>
       <c r="H6" t="n">
-        <v>408958.6286433848</v>
+        <v>409271.2699723059</v>
       </c>
       <c r="I6" t="n">
-        <v>408958.6286433847</v>
+        <v>409271.2699723062</v>
       </c>
       <c r="J6" t="n">
-        <v>191427.4262461073</v>
+        <v>191740.0675750283</v>
       </c>
       <c r="K6" t="n">
-        <v>408958.6286433847</v>
+        <v>409271.2699723061</v>
       </c>
       <c r="L6" t="n">
-        <v>408958.6286433847</v>
+        <v>409271.2699723061</v>
       </c>
       <c r="M6" t="n">
-        <v>323903.600707873</v>
+        <v>324216.2420367944</v>
       </c>
       <c r="N6" t="n">
-        <v>408958.6286433848</v>
+        <v>409271.2699723061</v>
       </c>
       <c r="O6" t="n">
-        <v>408958.6286433848</v>
+        <v>409271.2699723061</v>
       </c>
       <c r="P6" t="n">
-        <v>408958.6286433848</v>
+        <v>409271.2699723061</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099647</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973549</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022935</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973549</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973549</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>345.5834682595404</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>132.3887378304973</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>16.35117922901935</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>27.38138722868902</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27621,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>174.0238667465093</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>158.5207149607576</v>
       </c>
     </row>
     <row r="6">
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27833,10 +27833,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>94.3554362891108</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>273.0942536208831</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>307.2767095024436</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>311.9153108144941</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27915,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -29046,7 +29046,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>8.707735062108396e-13</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565776</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P17" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192568</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,22 +32551,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33192,7 +33192,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159425</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34365,13 +34365,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121332</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359236</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37086,7 +37086,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38013,13 +38013,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
